--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tech Mahindra Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB41409-0029-4AFB-88C0-A25580B413D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -352,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +422,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +474,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -494,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,9 +543,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,14 +719,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -866,10 +887,10 @@
         <v>27.72</v>
       </c>
       <c r="K3">
-        <v>788.1799999999999</v>
+        <v>788.18</v>
       </c>
       <c r="L3">
-        <v>908.1799999999999</v>
+        <v>908.18</v>
       </c>
       <c r="M3">
         <v>210.13</v>
@@ -887,16 +908,16 @@
         <v>34.64</v>
       </c>
       <c r="R3">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="S3">
         <v>39.81</v>
       </c>
       <c r="T3">
-        <v>38.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -925,13 +946,13 @@
         <v>673.58</v>
       </c>
       <c r="J4">
-        <v>9.390000000000001</v>
+        <v>9.39</v>
       </c>
       <c r="K4">
-        <v>664.1900000000001</v>
+        <v>664.19</v>
       </c>
       <c r="L4">
-        <v>664.1900000000001</v>
+        <v>664.19</v>
       </c>
       <c r="M4">
         <v>140.85</v>
@@ -958,7 +979,7 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -975,10 +996,10 @@
         <v>121.29</v>
       </c>
       <c r="F5">
-        <v>2065.76</v>
+        <v>2065.7600000000002</v>
       </c>
       <c r="G5">
-        <v>630.92</v>
+        <v>630.91999999999996</v>
       </c>
       <c r="H5">
         <v>78.12</v>
@@ -1020,7 +1041,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>51</v>
       </c>
       <c r="C6">
-        <v>4803.6</v>
+        <v>4803.6000000000004</v>
       </c>
       <c r="D6">
         <v>1803.89</v>
@@ -1046,7 +1067,7 @@
         <v>43.78</v>
       </c>
       <c r="I6">
-        <v>797.6799999999999</v>
+        <v>797.68</v>
       </c>
       <c r="J6">
         <v>2.54</v>
@@ -1082,7 +1103,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>52</v>
       </c>
       <c r="C7">
-        <v>5034.81</v>
+        <v>5034.8100000000004</v>
       </c>
       <c r="D7">
         <v>1831.04</v>
@@ -1099,13 +1120,13 @@
         <v>111.56</v>
       </c>
       <c r="F7">
-        <v>2252.68</v>
+        <v>2252.6799999999998</v>
       </c>
       <c r="G7">
         <v>839.53</v>
       </c>
       <c r="H7">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I7">
         <v>878.33</v>
@@ -1144,7 +1165,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>4707.15</v>
+        <v>4707.1499999999996</v>
       </c>
       <c r="D8">
         <v>1814.69</v>
@@ -1206,7 +1227,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>54</v>
       </c>
       <c r="C9">
-        <v>5016.31</v>
+        <v>5016.3100000000004</v>
       </c>
       <c r="D9">
         <v>1849.38</v>
@@ -1223,10 +1244,10 @@
         <v>123.28</v>
       </c>
       <c r="F9">
-        <v>2459.82</v>
+        <v>2459.8200000000002</v>
       </c>
       <c r="G9">
-        <v>583.83</v>
+        <v>583.83000000000004</v>
       </c>
       <c r="H9">
         <v>398.29</v>
@@ -1256,19 +1277,19 @@
         <v>479.99</v>
       </c>
       <c r="Q9">
-        <v>8.359999999999999</v>
+        <v>8.36</v>
       </c>
       <c r="R9">
         <v>8.17</v>
       </c>
       <c r="S9">
-        <v>8.359999999999999</v>
+        <v>8.36</v>
       </c>
       <c r="T9">
         <v>8.17</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>141.88</v>
       </c>
       <c r="F10">
-        <v>2532.3</v>
+        <v>2532.3000000000002</v>
       </c>
       <c r="G10">
         <v>749.61</v>
@@ -1330,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1347,10 +1368,10 @@
         <v>118.74</v>
       </c>
       <c r="F11">
-        <v>2509.28</v>
+        <v>2509.2800000000002</v>
       </c>
       <c r="G11">
-        <v>750.9400000000001</v>
+        <v>750.94</v>
       </c>
       <c r="H11">
         <v>76.05</v>
@@ -1359,7 +1380,7 @@
         <v>826.99</v>
       </c>
       <c r="J11">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K11">
         <v>810.59</v>
@@ -1371,10 +1392,10 @@
         <v>187.16</v>
       </c>
       <c r="N11">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="O11">
-        <v>623.4299999999999</v>
+        <v>623.42999999999995</v>
       </c>
       <c r="P11">
         <v>483.04</v>
@@ -1392,7 +1413,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1406,13 +1427,13 @@
         <v>1895.72</v>
       </c>
       <c r="E12">
-        <v>157.83</v>
+        <v>157.83000000000001</v>
       </c>
       <c r="F12">
         <v>2651.45</v>
       </c>
       <c r="G12">
-        <v>761.8099999999999</v>
+        <v>761.81</v>
       </c>
       <c r="H12">
         <v>134.9</v>
@@ -1454,7 +1475,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1542,16 +1563,16 @@
         <v>381.02</v>
       </c>
       <c r="I14">
-        <v>1149.66</v>
+        <v>1149.6600000000001</v>
       </c>
       <c r="J14">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="K14">
-        <v>1132.65</v>
+        <v>1132.6500000000001</v>
       </c>
       <c r="L14">
-        <v>1132.65</v>
+        <v>1132.6500000000001</v>
       </c>
       <c r="M14">
         <v>260.44</v>
@@ -1569,16 +1590,16 @@
         <v>8.99</v>
       </c>
       <c r="R14">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="S14">
         <v>8.99</v>
       </c>
       <c r="T14">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1628,19 +1649,19 @@
         <v>486.26</v>
       </c>
       <c r="Q15">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="R15">
         <v>8.65</v>
       </c>
       <c r="S15">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="T15">
         <v>8.65</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>2039.43</v>
       </c>
       <c r="E17">
-        <v>147.86</v>
+        <v>147.86000000000001</v>
       </c>
       <c r="F17">
         <v>2937.78</v>
@@ -1764,7 +1785,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +1847,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1867,7 @@
         <v>2961.76</v>
       </c>
       <c r="G19">
-        <v>815.4299999999999</v>
+        <v>815.43</v>
       </c>
       <c r="H19">
         <v>190.71</v>
@@ -1855,7 +1876,7 @@
         <v>1006.14</v>
       </c>
       <c r="J19">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K19">
         <v>988.24</v>
@@ -1888,7 +1909,7 @@
         <v>8.51</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2003,16 +2024,16 @@
         <v>9.32</v>
       </c>
       <c r="R21">
-        <v>9.279999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="S21">
         <v>9.32</v>
       </c>
       <c r="T21">
-        <v>9.279999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2085,7 +2106,7 @@
         <v>6989.7</v>
       </c>
       <c r="D23">
-        <v>2154.7</v>
+        <v>2154.6999999999998</v>
       </c>
       <c r="E23">
         <v>162.1</v>
@@ -2097,7 +2118,7 @@
         <v>1316.3</v>
       </c>
       <c r="H23">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="I23">
         <v>1397.7</v>
@@ -2115,10 +2136,10 @@
         <v>231.9</v>
       </c>
       <c r="N23">
-        <v>1152.9</v>
+        <v>1152.9000000000001</v>
       </c>
       <c r="O23">
-        <v>1152.9</v>
+        <v>1152.9000000000001</v>
       </c>
       <c r="P23">
         <v>490.5</v>
@@ -2136,7 +2157,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2195,7 @@
         <v>1291.5</v>
       </c>
       <c r="M24">
-        <v>310.4</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="N24">
         <v>981.1</v>
@@ -2198,7 +2219,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2230,7 @@
         <v>6858.7</v>
       </c>
       <c r="D25">
-        <v>2240.2</v>
+        <v>2240.1999999999998</v>
       </c>
       <c r="E25">
         <v>158.1</v>
@@ -2224,7 +2245,7 @@
         <v>238.8</v>
       </c>
       <c r="I25">
-        <v>1091.6</v>
+        <v>1091.5999999999999</v>
       </c>
       <c r="J25">
         <v>12.1</v>
@@ -2260,7 +2281,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2298,7 +2319,7 @@
         <v>1485.7</v>
       </c>
       <c r="M26">
-        <v>88.90000000000001</v>
+        <v>88.9</v>
       </c>
       <c r="N26">
         <v>1396.8</v>
@@ -2322,7 +2343,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2345,7 +2366,7 @@
         <v>975.6</v>
       </c>
       <c r="H27">
-        <v>289.6</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="I27">
         <v>1265.2</v>
@@ -2372,19 +2393,19 @@
         <v>482.7</v>
       </c>
       <c r="Q27">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="R27">
         <v>9.48</v>
       </c>
       <c r="S27">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="T27">
         <v>9.48</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>172</v>
       </c>
       <c r="F28">
-        <v>4779.6</v>
+        <v>4779.6000000000004</v>
       </c>
       <c r="G28">
         <v>286.7</v>
@@ -2446,7 +2467,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2457,7 +2478,7 @@
         <v>7164.7</v>
       </c>
       <c r="D29">
-        <v>2254.8</v>
+        <v>2254.8000000000002</v>
       </c>
       <c r="E29">
         <v>168.6</v>
@@ -2478,10 +2499,10 @@
         <v>18.3</v>
       </c>
       <c r="K29">
-        <v>1101.9</v>
+        <v>1101.9000000000001</v>
       </c>
       <c r="L29">
-        <v>1101.9</v>
+        <v>1101.9000000000001</v>
       </c>
       <c r="M29">
         <v>247.7</v>
@@ -2499,16 +2520,16 @@
         <v>8.83</v>
       </c>
       <c r="R29">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="S29">
         <v>8.83</v>
       </c>
       <c r="T29">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2540,13 +2561,13 @@
         <v>15.4</v>
       </c>
       <c r="K30">
-        <v>1257.6</v>
+        <v>1257.5999999999999</v>
       </c>
       <c r="L30">
-        <v>1257.6</v>
+        <v>1257.5999999999999</v>
       </c>
       <c r="M30">
-        <v>296.1</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="N30">
         <v>961.5</v>
@@ -2561,16 +2582,16 @@
         <v>9.93</v>
       </c>
       <c r="R30">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="S30">
         <v>9.93</v>
       </c>
       <c r="T30">
-        <v>9.880000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2611,10 +2632,10 @@
         <v>384.2</v>
       </c>
       <c r="N31">
-        <v>1255.6</v>
+        <v>1255.5999999999999</v>
       </c>
       <c r="O31">
-        <v>1255.6</v>
+        <v>1255.5999999999999</v>
       </c>
       <c r="P31">
         <v>483.7</v>
@@ -2632,7 +2653,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>2197.9</v>
       </c>
       <c r="E32">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="F32">
         <v>3816.2</v>
@@ -2694,7 +2715,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>1344.2</v>
       </c>
       <c r="J33">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K33">
         <v>1326.1</v>
@@ -2756,7 +2777,7 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>79</v>
       </c>
       <c r="C34">
-        <v>8464.870000000001</v>
+        <v>8464.8700000000008</v>
       </c>
       <c r="D34">
         <v>2695.92</v>
@@ -2773,13 +2794,13 @@
         <v>157.62</v>
       </c>
       <c r="F34">
-        <v>4242.6</v>
+        <v>4242.6000000000004</v>
       </c>
       <c r="G34">
         <v>1368.74</v>
       </c>
       <c r="H34">
-        <v>650.05</v>
+        <v>650.04999999999995</v>
       </c>
       <c r="I34">
         <v>2018.78</v>
@@ -2818,7 +2839,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2826,16 +2847,16 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>9010.799999999999</v>
+        <v>9010.7999999999993</v>
       </c>
       <c r="D35">
         <v>2811.3</v>
       </c>
       <c r="E35">
-        <v>153.3</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="F35">
-        <v>4675.4</v>
+        <v>4675.3999999999996</v>
       </c>
       <c r="G35">
         <v>1370.8</v>
@@ -2880,7 +2901,7 @@
         <v>13.57</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2897,7 +2918,7 @@
         <v>195.5</v>
       </c>
       <c r="F36">
-        <v>5197.1</v>
+        <v>5197.1000000000004</v>
       </c>
       <c r="G36">
         <v>981.2</v>
@@ -2906,7 +2927,7 @@
         <v>227.4</v>
       </c>
       <c r="I36">
-        <v>1208.6</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="J36">
         <v>17.3</v>
@@ -2918,7 +2939,7 @@
         <v>1191.3</v>
       </c>
       <c r="M36">
-        <v>153.3</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="N36">
         <v>1038</v>
@@ -2942,7 +2963,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>118.6</v>
       </c>
       <c r="I37">
-        <v>1170.9</v>
+        <v>1170.9000000000001</v>
       </c>
       <c r="J37">
         <v>25.1</v>
@@ -2980,7 +3001,7 @@
         <v>1145.8</v>
       </c>
       <c r="M37">
-        <v>263.6</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="N37">
         <v>882.2</v>
@@ -2992,19 +3013,19 @@
         <v>486.3</v>
       </c>
       <c r="Q37">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="R37">
         <v>9</v>
       </c>
       <c r="S37">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="T37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>10479.8</v>
+        <v>10479.799999999999</v>
       </c>
       <c r="D38">
         <v>3561.4</v>
@@ -3033,7 +3054,7 @@
         <v>1530.5</v>
       </c>
       <c r="J38">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K38">
         <v>1496.2</v>
@@ -3045,10 +3066,10 @@
         <v>334.3</v>
       </c>
       <c r="N38">
-        <v>1161.9</v>
+        <v>1161.9000000000001</v>
       </c>
       <c r="O38">
-        <v>1161.9</v>
+        <v>1161.9000000000001</v>
       </c>
       <c r="P38">
         <v>486.6</v>
@@ -3066,7 +3087,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3104,13 +3125,13 @@
         <v>1509.8</v>
       </c>
       <c r="M39">
-        <v>305.4</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="N39">
-        <v>1204.4</v>
+        <v>1204.4000000000001</v>
       </c>
       <c r="O39">
-        <v>1204.4</v>
+        <v>1204.4000000000001</v>
       </c>
       <c r="P39">
         <v>486.9</v>
@@ -3128,7 +3149,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3151,7 +3172,7 @@
         <v>841.3</v>
       </c>
       <c r="H40">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I40">
         <v>920.9</v>
@@ -3190,7 +3211,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3252,7 +3273,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>10439.7</v>
+        <v>10439.700000000001</v>
       </c>
       <c r="D42">
         <v>4029.2</v>
@@ -3293,10 +3314,10 @@
         <v>31.1</v>
       </c>
       <c r="N42">
-        <v>555.8</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="O42">
-        <v>555.8</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="P42">
         <v>487.8</v>
@@ -3314,7 +3335,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3346,10 +3367,10 @@
         <v>75.3</v>
       </c>
       <c r="K43">
-        <v>541.8</v>
+        <v>541.79999999999995</v>
       </c>
       <c r="L43">
-        <v>541.8</v>
+        <v>541.79999999999995</v>
       </c>
       <c r="M43">
         <v>55.9</v>
@@ -3376,7 +3397,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3438,7 +3459,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3479,10 +3500,10 @@
         <v>197.5</v>
       </c>
       <c r="N45">
-        <v>624.8</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="O45">
-        <v>624.8</v>
+        <v>624.79999999999995</v>
       </c>
       <c r="P45">
         <v>489</v>
@@ -3500,7 +3521,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3511,7 +3532,7 @@
         <v>10938.6</v>
       </c>
       <c r="D46">
-        <v>4222.1</v>
+        <v>4222.1000000000004</v>
       </c>
       <c r="E46">
         <v>203.1</v>
@@ -3529,7 +3550,7 @@
         <v>1705.4</v>
       </c>
       <c r="J46">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="K46">
         <v>1640.3</v>
@@ -3562,7 +3583,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
